--- a/CIVICS_Ghana/IO_Ghana/Pumpfed Irrigation for Maize/Charts/1_Saved Value Added using pumpfed irrigation.xlsx
+++ b/CIVICS_Ghana/IO_Ghana/Pumpfed Irrigation for Maize/Charts/1_Saved Value Added using pumpfed irrigation.xlsx
@@ -55,13 +55,13 @@
     <t>Poultry</t>
   </si>
   <si>
-    <t>Fossil-fuels</t>
-  </si>
-  <si>
     <t>Mining</t>
   </si>
   <si>
     <t>Food and beverages</t>
+  </si>
+  <si>
+    <t>Grain milling</t>
   </si>
   <si>
     <t>Other manufacturing</t>
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>-268.1566687149864</v>
+        <v>-99.91884095757553</v>
       </c>
       <c r="D2">
-        <v>-372.3386996777526</v>
+        <v>-138.7384900540892</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -530,10 +530,10 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>-0.7657548964898524</v>
+        <v>-0.2506623046083405</v>
       </c>
       <c r="D3">
-        <v>-1.962646159572614</v>
+        <v>-0.635671233818357</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -562,10 +562,10 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>-0.07046145937198389</v>
+        <v>-0.02468374282938157</v>
       </c>
       <c r="D4">
-        <v>-2.413383786041322</v>
+        <v>-0.8897212874471734</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -594,10 +594,10 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.0001069693455235665</v>
+        <v>0.0004745396408623037</v>
       </c>
       <c r="D5">
-        <v>0.0003061215423940666</v>
+        <v>0.00135802276929553</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -626,10 +626,10 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.6335342682027658</v>
+        <v>2.392971796943584</v>
       </c>
       <c r="D6">
-        <v>2.221885198146083</v>
+        <v>8.390414296205563</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -658,10 +658,10 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>-0.004726257824643199</v>
+        <v>0.0003909671665951464</v>
       </c>
       <c r="D7">
-        <v>-0.01383367788571377</v>
+        <v>-0.002181497653054976</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -690,10 +690,10 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>-0.02266460107011881</v>
+        <v>-0.004746679313598179</v>
       </c>
       <c r="D8">
-        <v>-0.05690435141900707</v>
+        <v>-0.008064480979896871</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -722,10 +722,10 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.02501544354561247</v>
+        <v>0.1559784713499539</v>
       </c>
       <c r="D9">
-        <v>0.0003039576286880674</v>
+        <v>0.01601647955374119</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -754,10 +754,10 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>-0.8619119139456188</v>
+        <v>-0.3203166810319686</v>
       </c>
       <c r="D10">
-        <v>-1.2277278742107</v>
+        <v>-0.4562667153275015</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>-0.3679894916949706</v>
+        <v>-0.1213206581674342</v>
       </c>
       <c r="D11">
-        <v>-0.6211465356151393</v>
+        <v>-0.2047827674974201</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -818,10 +818,10 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>-5.519794669339717e-05</v>
+        <v>0.01382557150540009</v>
       </c>
       <c r="D12">
-        <v>-0.002356004417379154</v>
+        <v>0.590114478795158</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -850,10 +850,10 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>-0.5663191240035133</v>
+        <v>-0.1498550498445468</v>
       </c>
       <c r="D13">
-        <v>-2.584906281586541</v>
+        <v>-0.6839981968687425</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -882,10 +882,10 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>-0.1604510947808535</v>
+        <v>-0.03047956596549284</v>
       </c>
       <c r="D14">
-        <v>-0.6002068056575354</v>
+        <v>-0.1140163172520943</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -914,10 +914,10 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.0008619089293997462</v>
+        <v>0.003907437342636655</v>
       </c>
       <c r="D15">
-        <v>0.004621252976733103</v>
+        <v>0.02095030673786624</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -946,10 +946,10 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.1483550117982304</v>
+        <v>0.5111101530794571</v>
       </c>
       <c r="D16">
-        <v>1.299204244350676</v>
+        <v>4.475996275169109</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -978,10 +978,10 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.01103333337543688</v>
+        <v>0.04012373513904777</v>
       </c>
       <c r="D17">
-        <v>0.1556267038456554</v>
+        <v>0.565950872069493</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1010,10 +1010,10 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>-0.01453744088257736</v>
+        <v>0.003821413444711652</v>
       </c>
       <c r="D18">
-        <v>-0.1018095880208421</v>
+        <v>0.02676238078129245</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1042,10 +1042,10 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>-0.3415328073970159</v>
+        <v>1.442999429837073</v>
       </c>
       <c r="D19">
-        <v>0.4238136778185435</v>
+        <v>3.232830690645642</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1074,10 +1074,10 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.03708467475553334</v>
+        <v>0.5858648553230523</v>
       </c>
       <c r="D20">
-        <v>0.07170241358471685</v>
+        <v>1.13275697948302</v>
       </c>
       <c r="E20">
         <v>0</v>
